--- a/file_export/bieu_mau/m3.xlsx
+++ b/file_export/bieu_mau/m3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\qlcbdoanB1\file_export\bieu_mau\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -357,9 +362,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,19 +371,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -393,73 +386,85 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,6 +476,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,7 +527,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +562,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,7 +774,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -806,228 +814,228 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
     </row>
     <row r="3" spans="1:28" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
     </row>
     <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="21" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="23"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="30"/>
     </row>
     <row r="9" spans="1:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -1038,24 +1046,24 @@
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="24"/>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="24" t="s">
         <v>12</v>
       </c>
@@ -1064,139 +1072,145 @@
       </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="33" t="s">
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="W9" s="24"/>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29" t="s">
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
     </row>
     <row r="10" spans="1:28" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="24"/>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U10" s="34" t="s">
+      <c r="U10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="34" t="s">
+      <c r="V10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="X10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="35" t="s">
+      <c r="Y10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="36" t="s">
+      <c r="Z10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" s="35" t="s">
+      <c r="AA10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB10" s="35" t="s">
+      <c r="AB10" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="Q3:AB3"/>
+    <mergeCell ref="A5:AB5"/>
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="X9:Y9"/>
@@ -1211,12 +1225,6 @@
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:R9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="Q3:AB3"/>
-    <mergeCell ref="A5:AB5"/>
-    <mergeCell ref="A6:Y6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
